--- a/配置文档/UI相关/科技树解锁界面相关配置.xlsx
+++ b/配置文档/UI相关/科技树解锁界面相关配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17340" windowHeight="7860" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ScienceRange_科技范围配置" sheetId="3" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="153">
   <si>
     <t>该表用于配置科技树类型
 就是科技有多少种，每种都有单独界面
@@ -199,10 +199,6 @@
   </si>
   <si>
     <t>建筑科技类型</t>
-  </si>
-  <si>
-    <t>战役id
-cfg_ChapterBase_战役基础数据表id</t>
   </si>
   <si>
     <t>科技id</t>
@@ -232,9 +228,6 @@
     <t>科技标识图片</t>
   </si>
   <si>
-    <t>ChapterId</t>
-  </si>
-  <si>
     <t>ScienceId</t>
   </si>
   <si>
@@ -254,9 +247,6 @@
   </si>
   <si>
     <t>PNG</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>炮塔防御</t>
@@ -499,6 +489,9 @@
   </si>
   <si>
     <t>语言id 是语言配置的id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>POINT</t>
@@ -1275,10 +1268,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1295,25 +1288,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1666,7 +1659,7 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1684,25 +1677,25 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1788,10 +1781,10 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -1814,10 +1807,10 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -1837,46 +1830,46 @@
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="4:7">
       <c r="D14" s="22"/>
@@ -1980,55 +1973,51 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="43.3833333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.6083333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.5666666666667" style="5" customWidth="1"/>
-    <col min="7" max="7" width="43.0333333333333" style="5" customWidth="1"/>
-    <col min="8" max="8" width="36.775" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.8833333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.6083333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.5666666666667" style="5" customWidth="1"/>
+    <col min="6" max="6" width="43.0333333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.775" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.8833333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71.25" spans="1:9">
+    <row r="1" ht="71.25" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="12">
         <v>2</v>
@@ -2051,42 +2040,36 @@
         <v>2</v>
       </c>
       <c r="H2" s="12">
-        <v>2</v>
-      </c>
-      <c r="I2" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
@@ -2094,294 +2077,267 @@
         <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="50.25" spans="1:8">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" ht="50.25" spans="1:9">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="H5" s="19" t="str">
+        <f t="shared" ref="H5:H11" si="0">_xlfn.DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</f>
+        <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="61" customHeight="1" spans="1:8">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="20" t="str">
-        <f t="shared" ref="I5:I11" si="0">_xlfn.DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</f>
-        <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
-      </c>
-    </row>
-    <row r="6" ht="61" customHeight="1" spans="1:9">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="5">
         <v>6</v>
       </c>
-      <c r="I6" s="20" t="str">
+      <c r="H6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
-    <row r="7" ht="61" customHeight="1" spans="1:9">
+    <row r="7" ht="61" customHeight="1" spans="1:8">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
         <v>3</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="20" t="str">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
-    <row r="8" ht="61" customHeight="1" spans="1:9">
+    <row r="8" ht="61" customHeight="1" spans="1:8">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
         <v>4</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="20" t="str">
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
-    <row r="9" ht="61" customHeight="1" spans="1:9">
+    <row r="9" ht="61" customHeight="1" spans="1:8">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
         <v>5</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="20" t="str">
+        <v>49</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
-    <row r="10" ht="61" customHeight="1" spans="1:9">
+    <row r="10" ht="61" customHeight="1" spans="1:8">
       <c r="A10" s="5">
         <v>1</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
         <v>6</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="5">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="5">
         <v>7</v>
       </c>
-      <c r="I10" s="20" t="str">
+      <c r="H10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
-    <row r="11" ht="61" customHeight="1" spans="1:9">
+    <row r="11" ht="61" customHeight="1" spans="1:8">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
         <v>7</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="20" t="str">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
-    <row r="12" ht="50.25" spans="1:9">
+    <row r="12" ht="50.25" spans="1:8">
       <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="B12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="16">
+      <c r="E12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="20" t="str">
+      <c r="F12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_A5BAA4F30A314152873A3175A4E9916B",1)</f>
         <v>=DISPIMG("ID_A5BAA4F30A314152873A3175A4E9916B",1)</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="6:7">
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+    <row r="14" spans="5:6">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 D4:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2394,59 +2350,55 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43.3833333333333" customWidth="1"/>
-    <col min="2" max="2" width="31.6083333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.5583333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="18.7416666666667" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="36.8833333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.8583333333333" customWidth="1"/>
-    <col min="10" max="10" width="20.7666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="48.5" customWidth="1"/>
+    <col min="5" max="5" width="18.7416666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="36.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.8583333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.7666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="71.25" spans="1:10">
+    <row r="1" s="3" customFormat="1" ht="71.25" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:10">
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -2454,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="12">
         <v>2</v>
@@ -2465,52 +2417,46 @@
       <c r="F2" s="12">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
       <c r="H2" s="4">
         <v>2</v>
       </c>
       <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:10">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="H3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:10">
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
@@ -2524,44 +2470,41 @@
         <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="14.25" spans="1:10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="14.25" spans="1:9">
       <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2570,30 +2513,27 @@
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="14.25" spans="1:10">
+    </row>
+    <row r="6" s="4" customFormat="1" ht="14.25" spans="1:9">
       <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="B6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="F6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -2602,158 +2542,143 @@
       <c r="I6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:10">
+    </row>
+    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:9">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="E10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="b">
+      <c r="F10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -2762,39 +2687,33 @@
       <c r="I11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="14.25" spans="1:10">
+    </row>
+    <row r="12" s="5" customFormat="1" ht="14.25" spans="1:9">
       <c r="A12" s="5">
         <v>1</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
         <v>5</v>
       </c>
-      <c r="F12" s="5" t="b">
+      <c r="E12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2810,7 +2729,7 @@
     <row r="22" s="5" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:J4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4">
       <formula1>数据类型!$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
@@ -2838,16 +2757,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2855,13 +2774,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2869,13 +2788,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2886,10 +2805,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2897,13 +2816,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2911,13 +2830,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2928,10 +2847,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2939,13 +2858,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2953,13 +2872,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2970,10 +2889,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2981,13 +2900,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2995,13 +2914,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3009,10 +2928,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3020,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3028,7 +2947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3036,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3044,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3052,7 +2971,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3060,7 +2979,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3068,7 +2987,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3076,7 +2995,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3084,7 +3003,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3092,7 +3011,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3100,7 +3019,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3108,7 +3027,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3116,13 +3035,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3130,13 +3049,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3144,13 +3063,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3158,13 +3077,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3172,10 +3091,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3186,10 +3105,10 @@
         <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3197,13 +3116,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3211,13 +3130,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3225,13 +3144,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3239,13 +3158,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3253,13 +3172,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3267,10 +3186,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/UI相关/科技树解锁界面相关配置.xlsx
+++ b/配置文档/UI相关/科技树解锁界面相关配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ScienceRange_科技范围配置" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="3">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="3">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="3">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="163">
   <si>
     <t>该表用于配置科技树类型
 就是科技有多少种，每种都有单独界面
@@ -204,15 +204,15 @@
     <t>科技id</t>
   </si>
   <si>
-    <t>科技显示文字</t>
-  </si>
-  <si>
-    <t>科技描述</t>
-  </si>
-  <si>
     <t xml:space="preserve">科技所属范围
 cfg_ScienceType_科技类型配置id
 </t>
+  </si>
+  <si>
+    <t>科技显示文字</t>
+  </si>
+  <si>
+    <t>科技描述</t>
   </si>
   <si>
     <t>科技所在位置
@@ -344,21 +344,24 @@
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>数据类型编号</t>
   </si>
   <si>
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
     <t>数据类型示例</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -368,6 +371,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -407,6 +413,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -455,6 +464,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -488,6 +500,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -497,6 +512,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -521,6 +539,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -542,21 +563,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -576,6 +597,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -1245,11 +1275,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1288,13 +1321,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1396,12 +1429,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1659,7 +1693,7 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1673,290 +1707,290 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="71.25" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="22" customFormat="1" ht="71.25" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <v>2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
+    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="16">
+    <row r="6" s="6" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+    <row r="7" s="6" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" ht="14.25" spans="2:8">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" ht="14.25" spans="2:8">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" ht="14.25" spans="2:8">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" ht="14.25" spans="2:8">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" ht="14.25" spans="2:8">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" ht="14.25" spans="2:8">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" ht="14.25" spans="2:8">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" ht="14.25" spans="2:8">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1975,365 +2009,358 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="43.3833333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.6083333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.5666666666667" style="5" customWidth="1"/>
-    <col min="6" max="6" width="43.0333333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.775" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.8833333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="43.3833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="22.6083333333333" style="6" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="6" width="43.0333333333333" style="6" customWidth="1"/>
+    <col min="7" max="7" width="36.775" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.8833333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="71.25" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <v>2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="50.25" spans="1:8">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="19" t="str">
+      <c r="H5" s="20" t="str">
         <f t="shared" ref="H5:H11" si="0">_xlfn.DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</f>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="6" ht="61" customHeight="1" spans="1:8">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>6</v>
       </c>
-      <c r="H6" s="19" t="str">
+      <c r="H6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="7" ht="61" customHeight="1" spans="1:8">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="19" t="str">
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="8" ht="61" customHeight="1" spans="1:8">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="19" t="str">
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="9" ht="61" customHeight="1" spans="1:8">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="19" t="str">
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="10" ht="61" customHeight="1" spans="1:8">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>7</v>
       </c>
-      <c r="H10" s="19" t="str">
+      <c r="H10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="11" ht="61" customHeight="1" spans="1:8">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="19" t="str">
+      <c r="G11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="12" ht="50.25" spans="1:8">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="15">
-        <v>2</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="19" t="str">
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="20" t="str">
         <f>_xlfn.DISPIMG("ID_A5BAA4F30A314152873A3175A4E9916B",1)</f>
         <v>=DISPIMG("ID_A5BAA4F30A314152873A3175A4E9916B",1)</v>
       </c>
     </row>
-    <row r="14" spans="5:6">
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="5:6">
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+    <row r="14" spans="6:6">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2352,8 +2379,8 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2369,364 +2396,364 @@
     <col min="9" max="9" width="20.7666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="71.25" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" ht="71.25" spans="1:9">
+      <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="b">
+      <c r="E7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="F7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="b">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="F8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="b">
+      <c r="E9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="F9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="b">
+      <c r="E10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="F10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="5" t="b">
+      <c r="E11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="F11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="5" t="b">
+      <c r="E12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="14.25"/>
-    <row r="14" s="5" customFormat="1" ht="14.25"/>
-    <row r="15" s="5" customFormat="1" ht="14.25"/>
-    <row r="16" s="5" customFormat="1" ht="14.25"/>
-    <row r="17" s="5" customFormat="1" ht="14.25"/>
-    <row r="18" s="5" customFormat="1" ht="14.25"/>
-    <row r="19" s="5" customFormat="1" ht="14.25"/>
-    <row r="20" s="5" customFormat="1" ht="14.25"/>
-    <row r="21" s="5" customFormat="1" ht="14.25"/>
-    <row r="22" s="5" customFormat="1" ht="14.25"/>
+      <c r="F12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="14.25"/>
+    <row r="14" s="6" customFormat="1" ht="14.25"/>
+    <row r="15" s="6" customFormat="1" ht="14.25"/>
+    <row r="16" s="6" customFormat="1" ht="14.25"/>
+    <row r="17" s="6" customFormat="1" ht="14.25"/>
+    <row r="18" s="6" customFormat="1" ht="14.25"/>
+    <row r="19" s="6" customFormat="1" ht="14.25"/>
+    <row r="20" s="6" customFormat="1" ht="14.25"/>
+    <row r="21" s="6" customFormat="1" ht="14.25"/>
+    <row r="22" s="6" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4">
@@ -2742,34 +2769,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2782,22 +2813,28 @@
       <c r="D2" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2805,83 +2842,99 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>95</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2889,204 +2942,264 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>110</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>125</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3094,10 +3207,13 @@
         <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3105,91 +3221,125 @@
         <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>145</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>149</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>152</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>154</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>156</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/UI相关/科技树解锁界面相关配置.xlsx
+++ b/配置文档/UI相关/科技树解锁界面相关配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ScienceRange_科技范围配置" sheetId="3" r:id="rId1"/>
@@ -1275,14 +1275,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1693,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1707,290 +1704,290 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" ht="71.25" spans="1:8">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="21" customFormat="1" ht="71.25" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>2</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>2</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15" t="s">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15">
+    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+    <row r="7" s="5" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="14.25" spans="4:7">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" ht="14.25" spans="2:8">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="14.25" spans="2:8">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" ht="14.25" spans="2:8">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" ht="14.25" spans="2:8">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" ht="14.25" spans="2:8">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="14.25" spans="2:8">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="14.25" spans="2:8">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" ht="14.25" spans="2:8">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2015,352 +2012,352 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="43.3833333333333" style="6" customWidth="1"/>
-    <col min="2" max="2" width="22.6083333333333" style="6" customWidth="1"/>
-    <col min="3" max="4" width="20.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20" style="6" customWidth="1"/>
-    <col min="6" max="6" width="43.0333333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="36.775" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.8833333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="43.3833333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.6083333333333" style="5" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20" style="5" customWidth="1"/>
+    <col min="6" max="6" width="43.0333333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.775" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.8833333333333" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="71.25" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>2</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>2</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" ht="50.25" spans="1:8">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="20" t="str">
+      <c r="H5" s="19" t="str">
         <f t="shared" ref="H5:H11" si="0">_xlfn.DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</f>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="6" ht="61" customHeight="1" spans="1:8">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>6</v>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="7" ht="61" customHeight="1" spans="1:8">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="20" t="str">
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="8" ht="61" customHeight="1" spans="1:8">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="20" t="str">
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="9" ht="61" customHeight="1" spans="1:8">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="20" t="str">
+      <c r="G9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="10" ht="61" customHeight="1" spans="1:8">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>7</v>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="11" ht="61" customHeight="1" spans="1:8">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="20" t="str">
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="12" ht="50.25" spans="1:8">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>2</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="20" t="str">
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_A5BAA4F30A314152873A3175A4E9916B",1)</f>
         <v>=DISPIMG("ID_A5BAA4F30A314152873A3175A4E9916B",1)</v>
       </c>
     </row>
     <row r="14" spans="6:6">
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="6:6">
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="6:6">
-      <c r="F16" s="21"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="21"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="21"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="21"/>
+      <c r="F19" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2379,7 +2376,7 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2396,364 +2393,364 @@
     <col min="9" max="9" width="20.7666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="71.25" spans="1:9">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="71.25" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A5" s="14">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="5" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="E6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="b">
+      <c r="E7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="F7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="b">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="F8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="b">
+      <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="F9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="b">
+      <c r="E10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="F10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="6" t="b">
+      <c r="E11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="b">
+      <c r="E12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="14.25"/>
-    <row r="14" s="6" customFormat="1" ht="14.25"/>
-    <row r="15" s="6" customFormat="1" ht="14.25"/>
-    <row r="16" s="6" customFormat="1" ht="14.25"/>
-    <row r="17" s="6" customFormat="1" ht="14.25"/>
-    <row r="18" s="6" customFormat="1" ht="14.25"/>
-    <row r="19" s="6" customFormat="1" ht="14.25"/>
-    <row r="20" s="6" customFormat="1" ht="14.25"/>
-    <row r="21" s="6" customFormat="1" ht="14.25"/>
-    <row r="22" s="6" customFormat="1" ht="14.25"/>
+      <c r="F12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="14.25"/>
+    <row r="14" s="5" customFormat="1" ht="14.25"/>
+    <row r="15" s="5" customFormat="1" ht="14.25"/>
+    <row r="16" s="5" customFormat="1" ht="14.25"/>
+    <row r="17" s="5" customFormat="1" ht="14.25"/>
+    <row r="18" s="5" customFormat="1" ht="14.25"/>
+    <row r="19" s="5" customFormat="1" ht="14.25"/>
+    <row r="20" s="5" customFormat="1" ht="14.25"/>
+    <row r="21" s="5" customFormat="1" ht="14.25"/>
+    <row r="22" s="5" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4">
@@ -2779,7 +2776,7 @@
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3326,19 +3323,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>162</v>
       </c>
     </row>

--- a/配置文档/UI相关/科技树解锁界面相关配置.xlsx
+++ b/配置文档/UI相关/科技树解锁界面相关配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="2"/>
+    <workbookView windowHeight="17655" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ScienceRange_科技范围配置" sheetId="3" r:id="rId1"/>
@@ -310,7 +310,7 @@
     <t>科技解锁所需货币</t>
   </si>
   <si>
-    <t>解锁建筑id列表
+    <t>解锁建筑项id列表
 cfg_MapBuildList_建造子列表id</t>
   </si>
   <si>
@@ -1690,8 +1690,8 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2006,8 +2006,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -2376,8 +2376,8 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15" t="b">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="15" t="b">
         <v>1</v>
@@ -2580,8 +2580,8 @@
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
+      <c r="E7" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>23</v>

--- a/配置文档/UI相关/科技树解锁界面相关配置.xlsx
+++ b/配置文档/UI相关/科技树解锁界面相关配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" firstSheet="2" activeTab="2"/>
+    <workbookView windowHeight="17655" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ScienceRange_科技范围配置" sheetId="3" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="177">
   <si>
     <t>该表用于配置科技树类型
 就是科技有多少种，每种都有单独界面
@@ -171,7 +171,7 @@
     <t>Vector2I</t>
   </si>
   <si>
-    <t>炮塔</t>
+    <t>采集</t>
   </si>
   <si>
     <t>#BASEVALUE</t>
@@ -189,16 +189,28 @@
     <t>炮塔科技类型</t>
   </si>
   <si>
-    <t>建筑</t>
+    <t>武器</t>
   </si>
   <si>
     <t>(10,10)</t>
   </si>
   <si>
-    <t>（100,40）</t>
-  </si>
-  <si>
     <t>建筑科技类型</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>辅助</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>全局</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
   <si>
     <t>科技id</t>
@@ -288,6 +300,44 @@
     <t>(1,5)</t>
   </si>
   <si>
+    <t>(5,8)</t>
+  </si>
+  <si>
+    <t>采集建筑优化Ⅰ</t>
+  </si>
+  <si>
+    <t>通过优化自动化工序，减少基础采集设备的建造价格
+挖掘钻机造价-20%
+收解台造价-10%</t>
+  </si>
+  <si>
+    <t>采集建筑优化Ⅱ</t>
+  </si>
+  <si>
+    <t>通过优化自动化工序，减少进阶高级设备的建造价格
+水晶提取器造价-10%
+次元凝练器造价-10%
+熔炉平台造价-10%
+熔炉插件造价-10%
+采矿无人机平台造价-10%</t>
+  </si>
+  <si>
+    <t>(1,4)</t>
+  </si>
+  <si>
+    <t>采集建筑优化Ⅲ</t>
+  </si>
+  <si>
+    <t>通过优化自动化工序，减少进阶特殊设备的建造价格
+结构体跃迁器造价-10%
+跃迁处理器造价-10%
+次元合成器造价-10%
+次元裂解器造价-10%</t>
+  </si>
+  <si>
+    <t>(1,8)</t>
+  </si>
+  <si>
     <t>该表用于配置科技的激活后的功能
 数据不想填就写 #BASEVALUE</t>
   </si>
@@ -342,6 +392,9 @@
   </si>
   <si>
     <t>&lt;(INT)&gt;</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -1275,7 +1328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,16 +1383,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1690,8 +1764,8 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1704,7 +1778,7 @@
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="71.25" spans="1:8">
+    <row r="1" s="26" customFormat="1" ht="71.25" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1818,16 +1892,16 @@
       <c r="C5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="17" t="s">
@@ -1844,96 +1918,196 @@
       <c r="C6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="17" t="s">
+    </row>
+    <row r="7" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="D7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>99</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="14.25" spans="4:7">
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="4:7">
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" ht="14.25" spans="2:8">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" ht="14.25" spans="2:8">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" ht="14.25" spans="2:8">
       <c r="B18" s="11"/>
@@ -2007,357 +2181,457 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="43.3833333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.6083333333333" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20" style="5" customWidth="1"/>
-    <col min="6" max="6" width="43.0333333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.775" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.8833333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="43.3833333333333" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.6083333333333" style="17" customWidth="1"/>
+    <col min="3" max="4" width="20.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="39.675" style="17" customWidth="1"/>
+    <col min="6" max="6" width="43.0333333333333" style="17" customWidth="1"/>
+    <col min="7" max="7" width="36.775" style="17" customWidth="1"/>
+    <col min="8" max="8" width="18.8833333333333" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="71.25" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>32</v>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
         <v>2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="20">
         <v>2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="20">
         <v>2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="20">
         <v>2</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="20">
         <v>2</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="20" t="s">
         <v>44</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" ht="50.25" spans="1:8">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>46</v>
+      <c r="H4" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:8">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="19" t="str">
+      <c r="F5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="24" t="str">
         <f t="shared" ref="H5:H11" si="0">_xlfn.DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</f>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="6" ht="61" customHeight="1" spans="1:8">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="17">
         <v>6</v>
       </c>
-      <c r="H6" s="19" t="str">
+      <c r="H6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="7" ht="61" customHeight="1" spans="1:8">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="19" t="str">
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="8" ht="61" customHeight="1" spans="1:8">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="19" t="str">
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="9" ht="61" customHeight="1" spans="1:8">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="19" t="str">
+      <c r="E9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="10" ht="61" customHeight="1" spans="1:8">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="17">
         <v>7</v>
       </c>
-      <c r="H10" s="19" t="str">
+      <c r="H10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
     <row r="11" ht="61" customHeight="1" spans="1:8">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="19" t="str">
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
       </c>
     </row>
-    <row r="12" ht="50.25" spans="1:8">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="15">
+    <row r="12" ht="113.3" spans="1:8">
+      <c r="A12" s="17">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="22">
         <v>2</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>57</v>
+      <c r="D12" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="19" t="str">
+        <v>30</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="24" t="str">
         <f>_xlfn.DISPIMG("ID_A5BAA4F30A314152873A3175A4E9916B",1)</f>
         <v>=DISPIMG("ID_A5BAA4F30A314152873A3175A4E9916B",1)</v>
       </c>
     </row>
-    <row r="14" spans="6:6">
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="20"/>
+    <row r="13" ht="50.25" spans="1:8">
+      <c r="A13" s="17">
+        <v>1</v>
+      </c>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="str">
+        <f t="shared" ref="H13:H16" si="1">_xlfn.DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</f>
+        <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
+      </c>
+    </row>
+    <row r="14" ht="57" spans="1:8">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="17">
+        <v>101</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="17">
+        <v>102</v>
+      </c>
+      <c r="H14" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="99.75" spans="1:8">
+      <c r="A15" s="17">
+        <v>1</v>
+      </c>
+      <c r="B15" s="17">
+        <v>102</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="17">
+        <v>103</v>
+      </c>
+      <c r="H15" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
+      </c>
+    </row>
+    <row r="16" ht="85.5" spans="1:8">
+      <c r="A16" s="17">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17">
+        <v>103</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>=DISPIMG("ID_5A1F6944C9424D0F8086801D862BA273",1)</v>
+      </c>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="20"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="20"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="20"/>
+      <c r="F19" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2376,8 +2650,8 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2393,33 +2667,33 @@
     <col min="9" max="9" width="20.7666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="71.25" spans="1:9">
+    <row r="1" s="3" customFormat="1" ht="159" customHeight="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:9">
@@ -2456,28 +2730,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:9">
@@ -2494,10 +2768,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>20</v>
@@ -2506,7 +2780,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="14.25" spans="1:9">
@@ -2517,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="15">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
@@ -2545,8 +2819,8 @@
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
+      <c r="C6" s="15">
+        <v>99</v>
       </c>
       <c r="D6" s="16">
         <v>0</v>
@@ -2574,8 +2848,8 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
+      <c r="C7" s="15">
+        <v>99</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -2603,8 +2877,8 @@
       <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
+      <c r="C8" s="15">
+        <v>99</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -2632,8 +2906,8 @@
       <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
+      <c r="C9" s="15">
+        <v>99</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -2661,8 +2935,8 @@
       <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
+      <c r="C10" s="15">
+        <v>99</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -2690,8 +2964,8 @@
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
+      <c r="C11" s="15">
+        <v>99</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
@@ -2717,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C12" s="15">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
@@ -2741,10 +3015,122 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="14.25"/>
-    <row r="14" s="5" customFormat="1" ht="14.25"/>
-    <row r="15" s="5" customFormat="1" ht="14.25"/>
-    <row r="16" s="5" customFormat="1" ht="14.25"/>
+    <row r="13" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="15">
+        <v>99</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>101</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>102</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>103</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="17" s="5" customFormat="1" ht="14.25"/>
     <row r="18" s="5" customFormat="1" ht="14.25"/>
     <row r="19" s="5" customFormat="1" ht="14.25"/>
@@ -2782,19 +3168,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2802,16 +3188,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2819,16 +3205,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2839,13 +3225,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2853,16 +3239,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2870,16 +3256,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2891,10 +3277,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2902,16 +3288,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2919,16 +3305,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2939,13 +3325,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2953,16 +3339,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2970,16 +3356,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2987,13 +3373,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3001,10 +3387,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3012,10 +3398,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3023,10 +3409,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3034,10 +3420,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3045,10 +3431,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3056,10 +3442,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3067,10 +3453,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3078,10 +3464,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3089,10 +3475,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3100,10 +3486,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3111,10 +3497,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3122,10 +3508,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3133,16 +3519,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3150,16 +3536,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3167,16 +3553,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3184,16 +3570,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3201,13 +3587,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3218,13 +3604,13 @@
         <v>21</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3232,16 +3618,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3249,16 +3635,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3266,16 +3652,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3283,16 +3669,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3300,14 +3686,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3315,11 +3701,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3327,16 +3713,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
